--- a/src/main/resources/test-case-template.xlsx
+++ b/src/main/resources/test-case-template.xlsx
@@ -5,20 +5,29 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\uet\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E31D9E-CFFC-4C52-A499-36B492093993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44DC5E43-EA06-448B-AEB3-31A24AE3AAE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -787,8 +796,9 @@
       <c r="G2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="3" t="b">
-        <v>0</v>
+      <c r="H2" s="3" t="str">
+        <f>IF(A1&lt;&gt;"","FALSE","")</f>
+        <v>FALSE</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="33" x14ac:dyDescent="0.2">
@@ -813,8 +823,9 @@
       <c r="G3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="3" t="b">
-        <v>0</v>
+      <c r="H3" s="3" t="str">
+        <f>IF(A2&lt;&gt;"","FALSE","")</f>
+        <v>FALSE</v>
       </c>
     </row>
   </sheetData>
